--- a/qby/src/static/market/c_single_give.xlsx
+++ b/qby/src/static/market/c_single_give.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowWidth="28000" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="C端-单品满件赠" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -26,7 +26,7 @@
     <t>*商品编码</t>
   </si>
   <si>
-    <t>一级优惠内容</t>
+    <t>*一级优惠内容</t>
   </si>
   <si>
     <t>二级优惠内容</t>
@@ -47,10 +47,10 @@
     <t>活动期间每人每账号限购</t>
   </si>
   <si>
-    <t>优惠门槛（请填写数字）</t>
+    <t>*优惠门槛（请填写数字）</t>
   </si>
   <si>
-    <t>赠送件数（请填写数字）</t>
+    <t>*赠送件数（请填写数字）</t>
   </si>
   <si>
     <t>优惠门槛
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80357142857143" defaultRowHeight="17.6"/>
